--- a/comparison_results/PSO_PID_With_Disturbance_Test_2.xlsx
+++ b/comparison_results/PSO_PID_With_Disturbance_Test_2.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03584768469655315</v>
+        <v>0.03694420812474251</v>
       </c>
       <c r="C2" t="n">
-        <v>1.101101101101101</v>
+        <v>1.121121121121121</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239589480220855</v>
+        <v>0.5355099712845164</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02022394142886336</v>
+        <v>0.01865771096944942</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1754002886544532</v>
+        <v>0.1793116130998777</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8196054654775135</v>
+        <v>0.8249930720767856</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2755768915122575</v>
+        <v>0.2772160327094029</v>
       </c>
       <c r="J2" t="n">
-        <v>10.82210900331498</v>
+        <v>10.81775250203427</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9595677892570155</v>
+        <v>0.9605458341328112</v>
       </c>
       <c r="L2" t="n">
-        <v>4.876677998382029</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1</v>
+        <v>9.958776483811118</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07401308783259701</v>
+        <v>0.1</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1.608780360795967</v>
       </c>
       <c r="P2" t="n">
-        <v>9.783165569688949</v>
+        <v>3.256390892232136</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01170656171960205</v>
+        <v>0.03242142158500703</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.91653733238773</v>
       </c>
       <c r="S2" t="n">
-        <v>8.011456171100171</v>
+        <v>6.706120244137897</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09965764878724699</v>
+        <v>0.001723335006233161</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9828513486395629</v>
+        <v>0.8076888139442733</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03483369282615856</v>
+        <v>0.0344232357707628</v>
       </c>
       <c r="C3" t="n">
         <v>1.021021021021021</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7455286493208924</v>
+        <v>0.6955956400493217</v>
       </c>
       <c r="E3" t="n">
         <v>0.6806806806806807</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01955497018811324</v>
+        <v>0.01729508944461446</v>
       </c>
       <c r="G3" t="n">
-        <v>0.16113254869918</v>
+        <v>0.1569993684371293</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7970279876600851</v>
+        <v>0.7779751906413975</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2693970315264431</v>
+        <v>0.2685631162398191</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74806027624037</v>
+        <v>11.79826440876034</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9586582579257183</v>
+        <v>0.9611825458987033</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.989433241825729</v>
       </c>
       <c r="M3" t="n">
-        <v>9.407206563710819</v>
+        <v>4.634569474436239</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07140977593896529</v>
+        <v>0.05344720903430646</v>
       </c>
       <c r="O3" t="n">
-        <v>1.995165709569763</v>
+        <v>1.831058041248689</v>
       </c>
       <c r="P3" t="n">
         <v>0.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07322735712357376</v>
+        <v>0.07322696417888334</v>
       </c>
       <c r="R3" t="n">
-        <v>1.992680618324777</v>
+        <v>1.368252224428627</v>
       </c>
       <c r="S3" t="n">
-        <v>2.602638653451124</v>
+        <v>4.028299290370676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001</v>
+        <v>0.05874982472340198</v>
       </c>
       <c r="U3" t="n">
-        <v>1.826091666644768</v>
+        <v>1.901248504838358</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03720929291623445</v>
+        <v>0.03454417227046516</v>
       </c>
       <c r="C4" t="n">
-        <v>1.101101101101101</v>
+        <v>1.041041041041041</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8152097290904899</v>
+        <v>0.4474678386381085</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02009911986160926</v>
+        <v>0.01754880487102641</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1778435881185667</v>
+        <v>0.1606652713011066</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8326526604880032</v>
+        <v>0.7909616096374316</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2757531198284496</v>
+        <v>0.2699637366956337</v>
       </c>
       <c r="J4" t="n">
-        <v>11.07740635557579</v>
+        <v>11.64529687277167</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9603429169054282</v>
+        <v>0.9598259967472568</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>6.241647216161498</v>
+        <v>0.2021610524650437</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1</v>
+        <v>0.0715623807951514</v>
       </c>
       <c r="O4" t="n">
-        <v>1.591021746290141</v>
+        <v>1.451205631104935</v>
       </c>
       <c r="P4" t="n">
-        <v>8.578444666461435</v>
+        <v>9.034042468199265</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1</v>
+        <v>0.01807009022918679</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9510846987426719</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>2.894064510937205</v>
+        <v>0.10121114876994</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002066485326324256</v>
+        <v>0.07145100142263533</v>
       </c>
       <c r="U4" t="n">
-        <v>1.730052341468467</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05732506836819525</v>
+        <v>0.06168876288205007</v>
       </c>
       <c r="C5" t="n">
-        <v>1.971971971971972</v>
+        <v>2.102102102102102</v>
       </c>
       <c r="D5" t="n">
-        <v>2.413812499564916</v>
+        <v>4.170682565876064</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.5305305305305306</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01986566174425098</v>
+        <v>0.01292293190397364</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1532517076210869</v>
+        <v>0.1171805245821741</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8092329122599639</v>
+        <v>0.7068181707175232</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2532852388327095</v>
+        <v>0.2485072628367652</v>
       </c>
       <c r="J5" t="n">
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9528390442315017</v>
+        <v>0.9620014470684819</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5399407264023439</v>
+        <v>0.1595736743502519</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02388905265848498</v>
+        <v>0.08437307467260616</v>
       </c>
       <c r="O5" t="n">
-        <v>1.142937137180777</v>
+        <v>1.302639985598307</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001425313492416314</v>
+        <v>0.03965489921091222</v>
       </c>
       <c r="R5" t="n">
-        <v>1.233568630067311</v>
+        <v>0.8372369255523535</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1</v>
+        <v>0.3016375777393365</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06680962414180587</v>
+        <v>0.008328823293703123</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9339355177795684</v>
+        <v>1.772074321000737</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05659971942395284</v>
+        <v>0.03156115101066054</v>
       </c>
       <c r="C6" t="n">
-        <v>1.941941941941942</v>
+        <v>0.970970970970971</v>
       </c>
       <c r="D6" t="n">
-        <v>2.817700379692105</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01043265992288483</v>
+        <v>0.01708723984685953</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1351505413898511</v>
+        <v>0.1441786774599408</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7543051051593788</v>
+        <v>0.7517773017654316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2510565911330601</v>
+        <v>0.2629192929592377</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>12.61503729358538</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9651654551955421</v>
+        <v>0.9624533364360444</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>6.89525469220272</v>
+        <v>0.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001</v>
+        <v>0.05688189512486753</v>
       </c>
       <c r="O6" t="n">
-        <v>1.877732369047871</v>
+        <v>0.5553613160788575</v>
       </c>
       <c r="P6" t="n">
-        <v>2.089056821420431</v>
+        <v>9.708336962102642</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001</v>
+        <v>0.005394702184178845</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2551263215571458</v>
+        <v>0.1</v>
       </c>
       <c r="S6" t="n">
-        <v>4.346427012560172</v>
+        <v>2.586974980126846</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001</v>
+        <v>0.07525483622181403</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.993252931262203</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03669582366706141</v>
+        <v>0.0384473570271488</v>
       </c>
       <c r="C7" t="n">
-        <v>1.041041041041041</v>
+        <v>1.151151151151151</v>
       </c>
       <c r="D7" t="n">
-        <v>1.347550259479776</v>
+        <v>0.7086468774963735</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.7607607607607607</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02092242760650426</v>
+        <v>0.01995233144076157</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1669969765466097</v>
+        <v>0.1889303564384472</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8118613645334253</v>
+        <v>0.8582305407001564</v>
       </c>
       <c r="I7" t="n">
-        <v>0.271345926370244</v>
+        <v>0.280241332568562</v>
       </c>
       <c r="J7" t="n">
-        <v>11.56378853408648</v>
+        <v>10.39476186836895</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9591950621766602</v>
+        <v>0.9594040602549992</v>
       </c>
       <c r="L7" t="n">
-        <v>4.996603789274519</v>
+        <v>4.870519646297881</v>
       </c>
       <c r="M7" t="n">
-        <v>5.192676363813868</v>
+        <v>9.99183033989384</v>
       </c>
       <c r="N7" t="n">
-        <v>0.09521393092336507</v>
+        <v>0.001</v>
       </c>
       <c r="O7" t="n">
-        <v>1.141313512055297</v>
+        <v>0.1</v>
       </c>
       <c r="P7" t="n">
-        <v>5.291204723515543</v>
+        <v>9.999591072541511</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0228815579454269</v>
+        <v>0.1</v>
       </c>
       <c r="R7" t="n">
-        <v>0.379726822786518</v>
+        <v>1.91744845023198</v>
       </c>
       <c r="S7" t="n">
-        <v>8.39913658685597</v>
+        <v>0.1002652704847033</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02742058382927047</v>
+        <v>0.008201062123149149</v>
       </c>
       <c r="U7" t="n">
-        <v>1.009576619556704</v>
+        <v>0.962797392746933</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0375455697576617</v>
+        <v>0.03303028460657186</v>
       </c>
       <c r="C8" t="n">
-        <v>1.131131131131131</v>
+        <v>0.980980980980981</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6939127588969047</v>
+        <v>0.5700916416489992</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.6506506506506506</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01681308182574606</v>
+        <v>0.01496527709354865</v>
       </c>
       <c r="G8" t="n">
-        <v>0.180246056027478</v>
+        <v>0.1491263417739176</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8302430187386932</v>
+        <v>0.7583815768673822</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2779633874355426</v>
+        <v>0.2658682374779946</v>
       </c>
       <c r="J8" t="n">
-        <v>10.68076495573691</v>
+        <v>12.15766485051269</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9620856596760297</v>
+        <v>0.9627052481427523</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.047298387961339</v>
+        <v>9.838505678132645</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001</v>
+        <v>0.06175713975908403</v>
       </c>
       <c r="O8" t="n">
-        <v>1.061545132856299</v>
+        <v>1.269767643527314</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.05657916660654376</v>
+        <v>0.04093272234196631</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>0.7077141955705063</v>
       </c>
       <c r="S8" t="n">
-        <v>1.424828977687593</v>
+        <v>0.5184980161761827</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001679312405761868</v>
+        <v>0.08021819392616131</v>
       </c>
       <c r="U8" t="n">
-        <v>1.976379605175826</v>
+        <v>1.693630846184076</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03740614292218339</v>
+        <v>0.03721557862445084</v>
       </c>
       <c r="C9" t="n">
         <v>1.101101101101101</v>
       </c>
       <c r="D9" t="n">
-        <v>0.816662203302491</v>
+        <v>0.8668593359655308</v>
       </c>
       <c r="E9" t="n">
         <v>0.7307307307307307</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02127762968996162</v>
+        <v>0.01865276449487922</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1796315914314948</v>
+        <v>0.1776792605418155</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8448671296644944</v>
+        <v>0.8262508244831238</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2761853607113438</v>
+        <v>0.2765550503944665</v>
       </c>
       <c r="J9" t="n">
-        <v>10.96348316898529</v>
+        <v>10.86767348308806</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9567015005543363</v>
+        <v>0.9599704236182283</v>
       </c>
       <c r="L9" t="n">
-        <v>4.999994937207239</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>8.112962970900695</v>
       </c>
       <c r="N9" t="n">
+        <v>0.01100758221549256</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.059822084460622</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7.970185975250397</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.001</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.538903776975713</v>
-      </c>
-      <c r="P9" t="n">
-        <v>8.043571336750157</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.08389281846074276</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.705595961584157</v>
+        <v>0.8256255934283337</v>
       </c>
       <c r="S9" t="n">
-        <v>8.257295592074001</v>
+        <v>6.493623732728278</v>
       </c>
       <c r="T9" t="n">
-        <v>0.06926147208510124</v>
+        <v>0.05848540022164776</v>
       </c>
       <c r="U9" t="n">
-        <v>1.941239919053082</v>
+        <v>0.1932247449377387</v>
       </c>
     </row>
     <row r="10">
@@ -1065,34 +1065,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03403053941308917</v>
+        <v>0.05710825069612223</v>
       </c>
       <c r="C10" t="n">
-        <v>0.990990990990991</v>
+        <v>1.971971971971972</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9200149621304998</v>
+        <v>2.528965281947911</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6606606606606606</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01602569855854655</v>
+        <v>0.01764516979502363</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1514419305312064</v>
+        <v>0.143803720387248</v>
       </c>
       <c r="H10" t="n">
-        <v>0.764135872388074</v>
+        <v>0.7832038913642321</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2664980790804927</v>
+        <v>0.2521290757768546</v>
       </c>
       <c r="J10" t="n">
-        <v>12.11137803393956</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9636778625661518</v>
+        <v>0.9552312511021516</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
@@ -1101,28 +1101,28 @@
         <v>0.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1</v>
+        <v>0.03785524477503496</v>
       </c>
       <c r="O10" t="n">
-        <v>1.681306290912736</v>
+        <v>1.820363961989283</v>
       </c>
       <c r="P10" t="n">
-        <v>8.38461319060208</v>
+        <v>4.369422026551417</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04646058723536756</v>
+        <v>0.001</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6680349504617968</v>
+        <v>1.089377018341772</v>
       </c>
       <c r="S10" t="n">
-        <v>3.550450613303137</v>
+        <v>7.667331466174205</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01012776642267</v>
+        <v>0.01136691069124166</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1</v>
+        <v>1.704559508953831</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05943385979129295</v>
+        <v>0.03425981066217031</v>
       </c>
       <c r="C11" t="n">
-        <v>2.132132132132132</v>
+        <v>1.041041041041041</v>
       </c>
       <c r="D11" t="n">
-        <v>1.891354728671975</v>
+        <v>0.2045729463312422</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6006006006006006</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01252253586250993</v>
+        <v>0.02072269625621501</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1550849915036217</v>
+        <v>0.1624042560343366</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8051998494856413</v>
+        <v>0.8036945608320651</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2626528517642399</v>
+        <v>0.269630297474817</v>
       </c>
       <c r="J11" t="n">
-        <v>12.93513695386972</v>
+        <v>11.72970878359793</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9680701629947875</v>
+        <v>0.9570849326389294</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.517133035993006</v>
+        <v>7.853117280476733</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01145020569064913</v>
+        <v>0.02098685555929487</v>
       </c>
       <c r="O11" t="n">
-        <v>1.308446504171841</v>
+        <v>0.9100135428035719</v>
       </c>
       <c r="P11" t="n">
-        <v>7.129725523513726</v>
+        <v>0.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.08863802667314413</v>
+        <v>0.07520522966748551</v>
       </c>
       <c r="R11" t="n">
-        <v>0.576694518976664</v>
+        <v>1.697658643667381</v>
       </c>
       <c r="S11" t="n">
-        <v>4.04624976608015</v>
+        <v>5.382927294835185</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0539050702392061</v>
+        <v>0.03989248336654624</v>
       </c>
       <c r="U11" t="n">
-        <v>1.895872816069498</v>
+        <v>0.4481900918303862</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05731077297229104</v>
+        <v>0.03400763959329029</v>
       </c>
       <c r="C12" t="n">
-        <v>1.991991991991992</v>
+        <v>0.980980980980981</v>
       </c>
       <c r="D12" t="n">
-        <v>2.500552120448536</v>
+        <v>1.003457959203106</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.6506506506506506</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01527595499744153</v>
+        <v>0.01649501988493875</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1443664823763338</v>
+        <v>0.1499794400962748</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7735753331530747</v>
+        <v>0.7654151609791208</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2531172329651902</v>
+        <v>0.2657454811854711</v>
       </c>
       <c r="J12" t="n">
-        <v>14.83241402368989</v>
+        <v>12.21754039183957</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9582219132567849</v>
+        <v>0.9610552424818943</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4.999999342817287</v>
       </c>
       <c r="M12" t="n">
-        <v>6.144317741456515</v>
+        <v>0.2104398273253112</v>
       </c>
       <c r="N12" t="n">
-        <v>0.001</v>
+        <v>0.08453893625584823</v>
       </c>
       <c r="O12" t="n">
-        <v>1.793442119266341</v>
+        <v>1.381806293024249</v>
       </c>
       <c r="P12" t="n">
-        <v>9.998935365052496</v>
+        <v>7.543732204916081</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.06862313174139305</v>
+        <v>0.04068432066958393</v>
       </c>
       <c r="R12" t="n">
-        <v>1.620423758534338</v>
+        <v>0.7358733669819686</v>
       </c>
       <c r="S12" t="n">
-        <v>3.49987757381142</v>
+        <v>10</v>
       </c>
       <c r="T12" t="n">
-        <v>0.06512533413196397</v>
+        <v>0.05377683931441797</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1</v>
+        <v>0.6914296797652317</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05671965073772079</v>
+        <v>0.05536186190068135</v>
       </c>
       <c r="C13" t="n">
-        <v>1.961961961961962</v>
+        <v>1.911911911911912</v>
       </c>
       <c r="D13" t="n">
-        <v>2.655543370073188</v>
+        <v>2.450033279202257</v>
       </c>
       <c r="E13" t="n">
         <v>0.5205205205205206</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01244577905204134</v>
+        <v>0.01650035820341087</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1392555874496566</v>
+        <v>0.136412647902087</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7555860822424826</v>
+        <v>0.7603387477750716</v>
       </c>
       <c r="I13" t="n">
-        <v>0.251793965276013</v>
+        <v>0.2512502605118664</v>
       </c>
       <c r="J13" t="n">
         <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9622860567926549</v>
+        <v>0.9561996018687243</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>4.087497179107816</v>
+        <v>1.793543858398171</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01785099926778791</v>
+        <v>0.001</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="P13" t="n">
-        <v>7.586674195424874</v>
+        <v>0.8276347733983839</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04515723562151055</v>
+        <v>0.001</v>
       </c>
       <c r="R13" t="n">
-        <v>1.352055341864615</v>
+        <v>1.94329069252403</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2671903614498734</v>
+        <v>7.984920104848093</v>
       </c>
       <c r="T13" t="n">
-        <v>0.07774675335804938</v>
+        <v>0.09984048459884942</v>
       </c>
       <c r="U13" t="n">
-        <v>0.6703102486395537</v>
+        <v>0.6919976818821199</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03203039647940497</v>
+        <v>0.03481724391813704</v>
       </c>
       <c r="C14" t="n">
-        <v>0.980980980980981</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06407388601619898</v>
+        <v>1.131634630944752</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6406406406406406</v>
+        <v>0.6606606606606606</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01865661984804322</v>
+        <v>0.02079204548928526</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1473981050840968</v>
+        <v>0.1566579084378767</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7598826971498912</v>
+        <v>0.7862804923866964</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2641302258766434</v>
+        <v>0.2674659879188478</v>
       </c>
       <c r="J14" t="n">
-        <v>12.45902762912762</v>
+        <v>12.00278917668897</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9596156575006444</v>
+        <v>0.9598257875752141</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>0.7021814975934537</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0214690170060532</v>
+        <v>0.08691807849765336</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4479985943491248</v>
+        <v>1.844205009854054</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1006157487013186</v>
+        <v>9.602352849620772</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.07039920003906702</v>
+        <v>0.001</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9441306127855543</v>
+        <v>0.1</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>9.308647969150796</v>
       </c>
       <c r="T14" t="n">
-        <v>0.001382950748181309</v>
+        <v>0.09659772435220115</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1867921147175291</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03177401625648166</v>
+        <v>0.05649613945539487</v>
       </c>
       <c r="C15" t="n">
-        <v>0.960960960960961</v>
+        <v>1.941941941941942</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06806222544488705</v>
+        <v>2.823609937740201</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6306306306306306</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01748890486883431</v>
+        <v>0.01538885206996962</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1464095557350434</v>
+        <v>0.1306738334485118</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7693476834641602</v>
+        <v>0.7484025160256363</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2632941119345618</v>
+        <v>0.250312806912484</v>
       </c>
       <c r="J15" t="n">
-        <v>12.52607591363838</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9605851053117908</v>
+        <v>0.9585237842505842</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>8.982494102153829</v>
+        <v>0.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02230020745109601</v>
+        <v>0.02783285428565978</v>
       </c>
       <c r="O15" t="n">
-        <v>1.567525999886355</v>
+        <v>1.296156843596654</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1199610338837324</v>
+        <v>10</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.03791151588224669</v>
+        <v>0.00621928298856116</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4027203643222638</v>
+        <v>1.651028735523846</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1</v>
+        <v>9.193899500425218</v>
       </c>
       <c r="T15" t="n">
-        <v>0.095169169142445</v>
+        <v>0.06079176813717779</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3363991209121954</v>
+        <v>0.8355685736601588</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05494668023298915</v>
+        <v>0.03467703313280548</v>
       </c>
       <c r="C16" t="n">
-        <v>1.891891891891892</v>
+        <v>1.051051051051051</v>
       </c>
       <c r="D16" t="n">
-        <v>2.606013350119814</v>
+        <v>0.3665047423033899</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F16" t="n">
-        <v>0.008099365022108009</v>
+        <v>0.01853252198558904</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1294739181529511</v>
+        <v>0.1638111597503751</v>
       </c>
       <c r="H16" t="n">
-        <v>0.741331479066265</v>
+        <v>0.7960090445783623</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2513875885130759</v>
+        <v>0.2710367071495637</v>
       </c>
       <c r="J16" t="n">
-        <v>14.69304109193857</v>
+        <v>11.49814580382762</v>
       </c>
       <c r="K16" t="n">
-        <v>0.969181961678971</v>
+        <v>0.9602133580631272</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>4.884660725129619</v>
+        <v>5.568755387489997</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01978000777765076</v>
+        <v>0.05193181900210563</v>
       </c>
       <c r="O16" t="n">
-        <v>1.628972207011617</v>
+        <v>1.89476821561636</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1048768258100947</v>
+        <v>0.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.003327618720018077</v>
+        <v>0.06121098941167563</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8600481361886209</v>
+        <v>1.558448077389853</v>
       </c>
       <c r="S16" t="n">
-        <v>3.699846177440226</v>
+        <v>0.1166059778357993</v>
       </c>
       <c r="T16" t="n">
-        <v>0.09998812407779735</v>
+        <v>0.005145364770452361</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2232128671457244</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03694908227058848</v>
+        <v>0.03411471807661745</v>
       </c>
       <c r="C17" t="n">
-        <v>1.141141141141141</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1404862966047767</v>
+        <v>0.3043825243723189</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7507507507507507</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02038550037971784</v>
+        <v>0.01953930014436573</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1845271524938581</v>
+        <v>0.1597357915725726</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8492082626395305</v>
+        <v>0.7951278438544501</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2784311500772727</v>
+        <v>0.2690290595615525</v>
       </c>
       <c r="J17" t="n">
-        <v>10.68895638189329</v>
+        <v>11.76899709977342</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9588592260267639</v>
+        <v>0.9583557507911412</v>
       </c>
       <c r="L17" t="n">
-        <v>4.999980076089921</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>4.794833530505087</v>
+        <v>0.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001054900033313007</v>
+        <v>0.06481905496482007</v>
       </c>
       <c r="O17" t="n">
-        <v>1.750593309227751</v>
+        <v>1.180690741653859</v>
       </c>
       <c r="P17" t="n">
-        <v>3.219236422893104</v>
+        <v>5.913228290327118</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09843702185933358</v>
+        <v>0.005886098211523072</v>
       </c>
       <c r="R17" t="n">
-        <v>1.570525619558293</v>
+        <v>1.451137474816767</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>0.287665216686925</v>
       </c>
       <c r="T17" t="n">
-        <v>0.003781999968302688</v>
+        <v>0.1</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>0.9023064980853835</v>
       </c>
     </row>
     <row r="18">
@@ -1585,40 +1585,40 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0564257614202071</v>
+        <v>0.03729360853191934</v>
       </c>
       <c r="C18" t="n">
-        <v>1.961961961961962</v>
+        <v>1.091091091091091</v>
       </c>
       <c r="D18" t="n">
-        <v>2.665888625198158</v>
+        <v>0.8874150413799095</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01454643477137356</v>
+        <v>0.02084030627948536</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1303439208140243</v>
+        <v>0.1788459004061914</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7381787603791594</v>
+        <v>0.8415920816600366</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2505336267080321</v>
+        <v>0.2760483581711348</v>
       </c>
       <c r="J18" t="n">
-        <v>14.98601449326666</v>
+        <v>10.95264230892316</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9587289800129165</v>
+        <v>0.9576192481752233</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>7.02127239324323</v>
+        <v>1.332921055072317</v>
       </c>
       <c r="N18" t="n">
         <v>0.001</v>
@@ -1627,22 +1627,22 @@
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>10</v>
+        <v>6.856475270595929</v>
       </c>
       <c r="Q18" t="n">
         <v>0.001</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6582481050240758</v>
+        <v>0.1</v>
       </c>
       <c r="S18" t="n">
         <v>0.1</v>
       </c>
       <c r="T18" t="n">
-        <v>0.002616734167874931</v>
+        <v>0.001579704117719644</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.90047779725602</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03652271660947293</v>
+        <v>0.03321901012327166</v>
       </c>
       <c r="C19" t="n">
-        <v>1.111111111111111</v>
+        <v>1.021021021021021</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5861043983491558</v>
+        <v>0.01500131752968</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.6706706706706707</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01626092081294445</v>
+        <v>0.02048855582011603</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1680456589477619</v>
+        <v>0.1572233497050873</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8080007757910549</v>
+        <v>0.7883497979707567</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2729017882056228</v>
+        <v>0.2675775523634595</v>
       </c>
       <c r="J19" t="n">
-        <v>11.38654609482628</v>
+        <v>11.9595761042032</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9653426303225828</v>
+        <v>0.9576403406666252</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1868828615194662</v>
+        <v>0.1255023937814944</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1</v>
+        <v>0.06467350009587208</v>
       </c>
       <c r="O19" t="n">
-        <v>0.863002301765421</v>
+        <v>1.350758391247736</v>
       </c>
       <c r="P19" t="n">
-        <v>7.059188197131996</v>
+        <v>0.3770231035189467</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1</v>
+        <v>0.06729368753916798</v>
       </c>
       <c r="R19" t="n">
         <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>8.231618792109666</v>
+        <v>0.1876600019338749</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1</v>
+        <v>0.001127424328488882</v>
       </c>
       <c r="U19" t="n">
-        <v>1.140772252955863</v>
+        <v>0.7295111346523238</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03706851452617688</v>
+        <v>0.03213195472531252</v>
       </c>
       <c r="C20" t="n">
-        <v>1.101101101101101</v>
+        <v>0.980980980980981</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7255484671427521</v>
+        <v>0.03821286931978325</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.6406406406406406</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02031987961544165</v>
+        <v>0.0212135650971742</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1774738993750986</v>
+        <v>0.1506458325052043</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8353701449079174</v>
+        <v>0.7688022914681399</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2756907438354265</v>
+        <v>0.2644121826491128</v>
       </c>
       <c r="J20" t="n">
-        <v>11.04365388430931</v>
+        <v>12.38149494951957</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9590393865064084</v>
+        <v>0.9596016004485212</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4.996807814346877</v>
       </c>
       <c r="M20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.3174029179765862</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.04893324029551276</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.8879416896162038</v>
+      </c>
+      <c r="S20" t="n">
         <v>10</v>
       </c>
-      <c r="N20" t="n">
-        <v>0.04537330695964362</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.8032792999191308</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4.998324632358874</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.02411792248425359</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.3844887891487405</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.5417426443300456</v>
-      </c>
       <c r="T20" t="n">
-        <v>0.08069659505145141</v>
+        <v>0.06998144322811062</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2065640784622178</v>
+        <v>1.956147135551622</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03646693718018611</v>
+        <v>0.03177420450171519</v>
       </c>
       <c r="C21" t="n">
-        <v>1.091091091091091</v>
+        <v>0.9309309309309309</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5249446737399726</v>
+        <v>0.4504180009053134</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.6106106106106106</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02173238839406824</v>
+        <v>0.02084544268974161</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1769817896251611</v>
+        <v>0.1409289253479905</v>
       </c>
       <c r="H21" t="n">
-        <v>0.835555684875558</v>
+        <v>0.7606117552798669</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2750233747755389</v>
+        <v>0.2594271574369278</v>
       </c>
       <c r="J21" t="n">
-        <v>11.0560398901017</v>
+        <v>13.17488275222548</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9567560833465235</v>
+        <v>0.9542551541850289</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.04485994298222766</v>
+        <v>0.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.893626817267412</v>
+        <v>1.575869799533472</v>
       </c>
       <c r="P21" t="n">
-        <v>0.926148843715375</v>
+        <v>0.1555709522642875</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.001</v>
+        <v>0.07894080892630061</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1</v>
+        <v>1.242534491588762</v>
       </c>
       <c r="S21" t="n">
-        <v>3.011913117367527</v>
+        <v>9.073411765758392</v>
       </c>
       <c r="T21" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1.870261451005156</v>
       </c>
     </row>
   </sheetData>
